--- a/ssiex2t3s4_play/n=7.xlsx
+++ b/ssiex2t3s4_play/n=7.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jibik\source\repos\ex3-4\ssiex2t3s4_play\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3B99B1D-D907-46A5-B96C-56F997F6BCEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC39A415-0486-4122-8F7B-9D87E5864F26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="output" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -7899,16 +7899,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8232,7 +8232,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
